--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A622EF-5E7C-4353-997F-6CA1C4DD5764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="46785" yWindow="930" windowWidth="15810" windowHeight="11490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
+    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
+    <sheet name="TCCpUCD" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -99,12 +111,99 @@
   </si>
   <si>
     <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
+  </si>
+  <si>
+    <t>completed CREZ transmission project where ERCOT installed 3600</t>
+  </si>
+  <si>
+    <t>miles of transmission at a cost of $7B USD [27]. If the project is</t>
+  </si>
+  <si>
+    <t>mostly 345 kV, double-circuit lines, each mile is assumed to have a</t>
+  </si>
+  <si>
+    <t>1.5 GW capacity [28], and the average cost is 1300 $/MW-mile. In</t>
+  </si>
+  <si>
+    <t>this study, a more conservative 1500 $/MW-mile is used.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0960148117312636</t>
+  </si>
+  <si>
+    <t>Deetjen et al (2018) modeling the optimal mix and location of wind and solar with transmission and carbon pricing considerations</t>
+  </si>
+  <si>
+    <t>Transmission costs were derived from information about the recently</t>
+  </si>
+  <si>
+    <t>The data come from this article</t>
+  </si>
+  <si>
+    <t>https://www.texastribune.org/2013/10/14/7-billion-crez-project-nears-finish-aiding-wind-po/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The $7Billion appears to be in 2008 dollars. </t>
+  </si>
+  <si>
+    <t>2008-to-2012 inflation conversion</t>
+  </si>
+  <si>
+    <t>$2012 CREZ Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Texas, we can take the recently completed CREZ project as a baseline. </t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>CREZ Miles</t>
+  </si>
+  <si>
+    <t>Capacity per mile (MW)</t>
+  </si>
+  <si>
+    <t>$/(MW-mile)</t>
+  </si>
+  <si>
+    <t>1. It is for a largely rural project with easier access and lower lease/procurement costs than in an urban area</t>
+  </si>
+  <si>
+    <t>2. Not all of the transmission will be 345kV double circuit. Some of it may be single circuit with lower MW capacity.</t>
+  </si>
+  <si>
+    <t>This is likely a conservative number for the cost of building new transmission in Texas because</t>
+  </si>
+  <si>
+    <t>But, assuming that most new transmission capacity in Texas will be built in similarly rural locations, and that most of that will be 345kv double circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then this 1387 $/MW-mile certainly seems more appropriate for Texas than the EPS 2248 $/MW-mile for the rest of the country. </t>
+  </si>
+  <si>
+    <t>3. All of the development was part of an enormous public works project, essentially, so there would have been some good economies of scale/learning/experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, to be slightly conservative, let's take 2/3 of the 1387 cost assuming that Texas will mostly develop rural renewables-focused transmission </t>
+  </si>
+  <si>
+    <t>and that it has retained some of the learning/economies that helped the CREZ cost stay relatively low, and we'll take 1/3 of the 2248 cost assuming</t>
+  </si>
+  <si>
+    <t>that some transmission will be built in more urban areas and that future transmission projects will be of smaller scale than CREZ and likely not</t>
+  </si>
+  <si>
+    <t>achieve as efficient economies.</t>
+  </si>
+  <si>
+    <t>Approx Texas $/(MW-mile) for transmission development (in 2012 dollars)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +276,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +357,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,16 +379,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +487,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -403,6 +539,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,14 +731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -648,23 +801,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.19921875" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -762,13 +917,237 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B654639-6795-4AF1-9CD2-64127B28DAB7}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1.07</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
+        <f>7000000000*A16</f>
+        <v>7490000000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="16">
+        <v>3600</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="16">
+        <v>1500</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="19">
+        <f>A18/(A19*A20)</f>
+        <v>1387.037037037037</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="18">
+        <f>(2/3)*A21+(1/3)*Data!B10</f>
+        <v>1674.1449099372594</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{38E25189-6252-4B06-AB21-327B23B4D075}"/>
+    <hyperlink ref="A14" r:id="rId2" xr:uid="{879A550D-A997-4D9B-A5CE-9D1EE848245C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -786,8 +1165,8 @@
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f>Data!B10</f>
-        <v>2248.3606557377047</v>
+        <f>'Texas Notes'!A35</f>
+        <v>1674.1449099372594</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\TCCpUCD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A622EF-5E7C-4353-997F-6CA1C4DD5764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46785" yWindow="930" windowWidth="15810" windowHeight="11490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Texas Notes" sheetId="4" r:id="rId3"/>
-    <sheet name="TCCpUCD" sheetId="3" r:id="rId4"/>
+    <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TCCpUCD Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
@@ -111,99 +99,12 @@
   </si>
   <si>
     <t>Cost per Unit Capacity Distance (2012$/(MW*mile))</t>
-  </si>
-  <si>
-    <t>completed CREZ transmission project where ERCOT installed 3600</t>
-  </si>
-  <si>
-    <t>miles of transmission at a cost of $7B USD [27]. If the project is</t>
-  </si>
-  <si>
-    <t>mostly 345 kV, double-circuit lines, each mile is assumed to have a</t>
-  </si>
-  <si>
-    <t>1.5 GW capacity [28], and the average cost is 1300 $/MW-mile. In</t>
-  </si>
-  <si>
-    <t>this study, a more conservative 1500 $/MW-mile is used.</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S0960148117312636</t>
-  </si>
-  <si>
-    <t>Deetjen et al (2018) modeling the optimal mix and location of wind and solar with transmission and carbon pricing considerations</t>
-  </si>
-  <si>
-    <t>Transmission costs were derived from information about the recently</t>
-  </si>
-  <si>
-    <t>The data come from this article</t>
-  </si>
-  <si>
-    <t>https://www.texastribune.org/2013/10/14/7-billion-crez-project-nears-finish-aiding-wind-po/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The $7Billion appears to be in 2008 dollars. </t>
-  </si>
-  <si>
-    <t>2008-to-2012 inflation conversion</t>
-  </si>
-  <si>
-    <t>$2012 CREZ Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Texas, we can take the recently completed CREZ project as a baseline. </t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>CREZ Miles</t>
-  </si>
-  <si>
-    <t>Capacity per mile (MW)</t>
-  </si>
-  <si>
-    <t>$/(MW-mile)</t>
-  </si>
-  <si>
-    <t>1. It is for a largely rural project with easier access and lower lease/procurement costs than in an urban area</t>
-  </si>
-  <si>
-    <t>2. Not all of the transmission will be 345kV double circuit. Some of it may be single circuit with lower MW capacity.</t>
-  </si>
-  <si>
-    <t>This is likely a conservative number for the cost of building new transmission in Texas because</t>
-  </si>
-  <si>
-    <t>But, assuming that most new transmission capacity in Texas will be built in similarly rural locations, and that most of that will be 345kv double circuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">then this 1387 $/MW-mile certainly seems more appropriate for Texas than the EPS 2248 $/MW-mile for the rest of the country. </t>
-  </si>
-  <si>
-    <t>3. All of the development was part of an enormous public works project, essentially, so there would have been some good economies of scale/learning/experience.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, to be slightly conservative, let's take 2/3 of the 1387 cost assuming that Texas will mostly develop rural renewables-focused transmission </t>
-  </si>
-  <si>
-    <t>and that it has retained some of the learning/economies that helped the CREZ cost stay relatively low, and we'll take 1/3 of the 2248 cost assuming</t>
-  </si>
-  <si>
-    <t>that some transmission will be built in more urban areas and that future transmission projects will be of smaller scale than CREZ and likely not</t>
-  </si>
-  <si>
-    <t>achieve as efficient economies.</t>
-  </si>
-  <si>
-    <t>Approx Texas $/(MW-mile) for transmission development (in 2012 dollars)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,18 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +246,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -379,24 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,23 +368,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -539,23 +403,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.73046875" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -801,25 +648,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -917,237 +762,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B654639-6795-4AF1-9CD2-64127B28DAB7}">
-  <dimension ref="A1:F35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>1.07</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
-        <f>7000000000*A16</f>
-        <v>7490000000</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
-        <v>3600</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="16">
-        <v>1500</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="19">
-        <f>A18/(A19*A20)</f>
-        <v>1387.037037037037</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="18">
-        <f>(2/3)*A21+(1/3)*Data!B10</f>
-        <v>1674.1449099372594</v>
-      </c>
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{38E25189-6252-4B06-AB21-327B23B4D075}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{879A550D-A997-4D9B-A5CE-9D1EE848245C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1165,8 +786,8 @@
         <v>18</v>
       </c>
       <c r="B2" s="6">
-        <f>'Texas Notes'!A35</f>
-        <v>1674.1449099372594</v>
+        <f>Data!B10</f>
+        <v>2248.3606557377047</v>
       </c>
     </row>
   </sheetData>
